--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3155A991-D291-43FE-A016-755A4CB3FFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30BC59A-FC4A-4C94-AA7C-A0FE7AC3FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>JENN</t>
   </si>
@@ -95,15 +95,6 @@
     <t>Registration Cutoff At</t>
   </si>
   <si>
-    <t>HTTP URL HERE</t>
-  </si>
-  <si>
-    <t>TJ Registration Cutoff Runway</t>
-  </si>
-  <si>
-    <t>TJ Fee Cut</t>
-  </si>
-  <si>
     <t>The numbers below are estimates.  The blockends truly calculates based on the wallets registration block and those will unpredictably vary.                                                                              Also due to rounding, there is a possibility that there is "mine dust" left over following the blockends.  This is withdrawable assuming all miners have claimed.</t>
   </si>
   <si>
@@ -201,6 +192,18 @@
   </si>
   <si>
     <t>Amethyst</t>
+  </si>
+  <si>
+    <t>Registration Cutoff Runway</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2ShMFZj</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3gYifn0</t>
+  </si>
+  <si>
+    <t>TJ Fee Percentage</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +251,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,12 +283,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -293,63 +305,68 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -720,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B10:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -749,38 +766,38 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="15" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -796,174 +813,174 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17">
+      <c r="E15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="17"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="21">
+      <c r="F16" s="16"/>
+      <c r="G16" s="17">
         <v>1200000</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="11">
         <v>18</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="22">
+      <c r="F17" s="16"/>
+      <c r="G17" s="24">
         <v>14765000</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>8999999</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="22">
+      <c r="F18" s="16"/>
+      <c r="G18" s="24">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="12">
         <v>599999</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9">
+      <c r="F19" s="16"/>
+      <c r="G19" s="18">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>383</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="10" t="str">
+      <c r="C20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="16" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8">
+      <c r="F20" s="16"/>
+      <c r="G20" s="21">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10" t="str">
+      <c r="C21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="16" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="21">
+      <c r="F21" s="16"/>
+      <c r="G21" s="17">
         <v>175</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="7">
+      <c r="F22" s="16"/>
+      <c r="G22" s="22">
         <f>G21/G18</f>
         <v>875000</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C23" s="4"/>
-      <c r="E23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15">
+      <c r="E23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="23">
         <f>G22*0.25</f>
         <v>218750</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="B25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
@@ -972,42 +989,42 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>23</v>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>24</v>
+      <c r="H27" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="18"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <f>B28*$G$18</f>
+        <f t="shared" ref="D28:D45" si="0">B28*$G$18</f>
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <f>C28-$G$23</f>
+        <f t="shared" ref="E28:E45" si="1">C28-$G$23</f>
         <v>-218750</v>
       </c>
       <c r="F28" s="6">
-        <f>B28*($G$21*(1-$G$15))</f>
+        <f t="shared" ref="F28:F45" si="2">B28*($G$21*(1-$G$15))</f>
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <f>C28-$G$16</f>
+        <f t="shared" ref="G28:G45" si="3">C28-$G$16</f>
         <v>-1200000</v>
       </c>
       <c r="H28" s="4">
@@ -1020,23 +1037,23 @@
         <v>100</v>
       </c>
       <c r="C29" s="6">
-        <f>$G$17+($G$16/(B29*$G$18))</f>
+        <f t="shared" ref="C29:C45" si="4">$G$17+($G$16/(B29*$G$18))</f>
         <v>74765000</v>
       </c>
       <c r="D29" s="4">
-        <f>B29*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E29" s="6">
-        <f>C29-$G$23</f>
+        <f t="shared" si="1"/>
         <v>74546250</v>
       </c>
       <c r="F29" s="6">
-        <f>B29*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>8750</v>
       </c>
       <c r="G29" s="6">
-        <f>C29-$G$16</f>
+        <f t="shared" si="3"/>
         <v>73565000</v>
       </c>
       <c r="H29" s="4">
@@ -1049,27 +1066,27 @@
         <v>300</v>
       </c>
       <c r="C30" s="6">
-        <f>$G$17+($G$16/(B30*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>34765000</v>
       </c>
       <c r="D30" s="4">
-        <f>B30*$G$18</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="E30" s="6">
-        <f>C30-$G$23</f>
+        <f t="shared" si="1"/>
         <v>34546250</v>
       </c>
       <c r="F30" s="6">
-        <f>B30*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>26250</v>
       </c>
       <c r="G30" s="6">
-        <f>C30-$G$16</f>
+        <f t="shared" si="3"/>
         <v>33565000</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:H45" si="0">F30/$G$16</f>
+        <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
         <v>2.1874999999999999E-2</v>
       </c>
     </row>
@@ -1078,27 +1095,27 @@
         <v>500</v>
       </c>
       <c r="C31" s="6">
-        <f>$G$17+($G$16/(B31*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>26765000</v>
       </c>
       <c r="D31" s="4">
-        <f>B31*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E31" s="6">
-        <f>C31-$G$23</f>
+        <f t="shared" si="1"/>
         <v>26546250</v>
       </c>
       <c r="F31" s="6">
-        <f>B31*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>43750</v>
       </c>
       <c r="G31" s="6">
-        <f>C31-$G$16</f>
+        <f t="shared" si="3"/>
         <v>25565000</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.6458333333333336E-2</v>
       </c>
     </row>
@@ -1107,27 +1124,27 @@
         <v>700</v>
       </c>
       <c r="C32" s="6">
-        <f>$G$17+($G$16/(B32*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>23336428.571428571</v>
       </c>
       <c r="D32" s="4">
-        <f>B32*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E32" s="6">
-        <f>C32-$G$23</f>
+        <f t="shared" si="1"/>
         <v>23117678.571428571</v>
       </c>
       <c r="F32" s="6">
-        <f>B32*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>61250</v>
       </c>
       <c r="G32" s="6">
-        <f>C32-$G$16</f>
+        <f t="shared" si="3"/>
         <v>22136428.571428571</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.1041666666666666E-2</v>
       </c>
     </row>
@@ -1136,27 +1153,27 @@
         <v>1000</v>
       </c>
       <c r="C33" s="6">
-        <f>$G$17+($G$16/(B33*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>20765000</v>
       </c>
       <c r="D33" s="4">
-        <f>B33*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E33" s="6">
-        <f>C33-$G$23</f>
+        <f t="shared" si="1"/>
         <v>20546250</v>
       </c>
       <c r="F33" s="6">
-        <f>B33*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>87500</v>
       </c>
       <c r="G33" s="6">
-        <f>C33-$G$16</f>
+        <f t="shared" si="3"/>
         <v>19565000</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
@@ -1165,27 +1182,27 @@
         <v>1500</v>
       </c>
       <c r="C34" s="6">
-        <f>$G$17+($G$16/(B34*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>18765000</v>
       </c>
       <c r="D34" s="4">
-        <f>B34*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="E34" s="6">
-        <f>C34-$G$23</f>
+        <f t="shared" si="1"/>
         <v>18546250</v>
       </c>
       <c r="F34" s="6">
-        <f>B34*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>131250</v>
       </c>
       <c r="G34" s="6">
-        <f>C34-$G$16</f>
+        <f t="shared" si="3"/>
         <v>17565000</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.109375</v>
       </c>
     </row>
@@ -1194,27 +1211,27 @@
         <v>2000</v>
       </c>
       <c r="C35" s="6">
-        <f>$G$17+($G$16/(B35*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>17765000</v>
       </c>
       <c r="D35" s="4">
-        <f>B35*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="E35" s="6">
-        <f>C35-$G$23</f>
+        <f t="shared" si="1"/>
         <v>17546250</v>
       </c>
       <c r="F35" s="6">
-        <f>B35*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>175000</v>
       </c>
       <c r="G35" s="6">
-        <f>C35-$G$16</f>
+        <f t="shared" si="3"/>
         <v>16565000</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.14583333333333334</v>
       </c>
     </row>
@@ -1223,27 +1240,27 @@
         <v>2500</v>
       </c>
       <c r="C36" s="6">
-        <f>$G$17+($G$16/(B36*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>17165000</v>
       </c>
       <c r="D36" s="4">
-        <f>B36*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E36" s="6">
-        <f>C36-$G$23</f>
+        <f t="shared" si="1"/>
         <v>16946250</v>
       </c>
       <c r="F36" s="6">
-        <f>B36*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>218750</v>
       </c>
       <c r="G36" s="6">
-        <f>C36-$G$16</f>
+        <f t="shared" si="3"/>
         <v>15965000</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.18229166666666666</v>
       </c>
     </row>
@@ -1252,27 +1269,27 @@
         <v>3000</v>
       </c>
       <c r="C37" s="6">
-        <f>$G$17+($G$16/(B37*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>16765000</v>
       </c>
       <c r="D37" s="4">
-        <f>B37*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="E37" s="6">
-        <f>C37-$G$23</f>
+        <f t="shared" si="1"/>
         <v>16546250</v>
       </c>
       <c r="F37" s="6">
-        <f>B37*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>262500</v>
       </c>
       <c r="G37" s="6">
-        <f>C37-$G$16</f>
+        <f t="shared" si="3"/>
         <v>15565000</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.21875</v>
       </c>
     </row>
@@ -1281,27 +1298,27 @@
         <v>3500</v>
       </c>
       <c r="C38" s="6">
-        <f>$G$17+($G$16/(B38*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>16479285.714285715</v>
       </c>
       <c r="D38" s="4">
-        <f>B38*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="E38" s="6">
-        <f>C38-$G$23</f>
+        <f t="shared" si="1"/>
         <v>16260535.714285715</v>
       </c>
       <c r="F38" s="6">
-        <f>B38*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>306250</v>
       </c>
       <c r="G38" s="6">
-        <f>C38-$G$16</f>
+        <f t="shared" si="3"/>
         <v>15279285.714285715</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.25520833333333331</v>
       </c>
     </row>
@@ -1310,27 +1327,27 @@
         <v>4000</v>
       </c>
       <c r="C39" s="6">
-        <f>$G$17+($G$16/(B39*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>16265000</v>
       </c>
       <c r="D39" s="4">
-        <f>B39*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="E39" s="6">
-        <f>C39-$G$23</f>
+        <f t="shared" si="1"/>
         <v>16046250</v>
       </c>
       <c r="F39" s="6">
-        <f>B39*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
       <c r="G39" s="6">
-        <f>C39-$G$16</f>
+        <f t="shared" si="3"/>
         <v>15065000</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -1339,27 +1356,27 @@
         <v>4500</v>
       </c>
       <c r="C40" s="6">
-        <f>$G$17+($G$16/(B40*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>16098333.333333334</v>
       </c>
       <c r="D40" s="4">
-        <f>B40*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="E40" s="6">
-        <f>C40-$G$23</f>
+        <f t="shared" si="1"/>
         <v>15879583.333333334</v>
       </c>
       <c r="F40" s="6">
-        <f>B40*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>393750</v>
       </c>
       <c r="G40" s="6">
-        <f>C40-$G$16</f>
+        <f t="shared" si="3"/>
         <v>14898333.333333334</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.328125</v>
       </c>
     </row>
@@ -1368,27 +1385,27 @@
         <v>5000</v>
       </c>
       <c r="C41" s="6">
-        <f>$G$17+($G$16/(B41*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>15965000</v>
       </c>
       <c r="D41" s="4">
-        <f>B41*$G$18</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <f>C41-$G$23</f>
+        <f t="shared" si="1"/>
         <v>15746250</v>
       </c>
       <c r="F41" s="6">
-        <f>B41*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>437500</v>
       </c>
       <c r="G41" s="6">
-        <f>C41-$G$16</f>
+        <f t="shared" si="3"/>
         <v>14765000</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.36458333333333331</v>
       </c>
     </row>
@@ -1397,27 +1414,27 @@
         <v>10000</v>
       </c>
       <c r="C42" s="6">
-        <f>$G$17+($G$16/(B42*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>15365000</v>
       </c>
       <c r="D42" s="4">
-        <f>B42*$G$18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E42" s="6">
-        <f>C42-$G$23</f>
+        <f t="shared" si="1"/>
         <v>15146250</v>
       </c>
       <c r="F42" s="6">
-        <f>B42*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>875000</v>
       </c>
       <c r="G42" s="6">
-        <f>C42-$G$16</f>
+        <f t="shared" si="3"/>
         <v>14165000</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.72916666666666663</v>
       </c>
     </row>
@@ -1426,27 +1443,27 @@
         <v>15000</v>
       </c>
       <c r="C43" s="6">
-        <f>$G$17+($G$16/(B43*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>15165000</v>
       </c>
       <c r="D43" s="4">
-        <f>B43*$G$18</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E43" s="6">
-        <f>C43-$G$23</f>
+        <f t="shared" si="1"/>
         <v>14946250</v>
       </c>
       <c r="F43" s="6">
-        <f>B43*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>1312500</v>
       </c>
       <c r="G43" s="6">
-        <f>C43-$G$16</f>
+        <f t="shared" si="3"/>
         <v>13965000</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.09375</v>
       </c>
     </row>
@@ -1455,27 +1472,27 @@
         <v>20000</v>
       </c>
       <c r="C44" s="6">
-        <f>$G$17+($G$16/(B44*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>15065000</v>
       </c>
       <c r="D44" s="4">
-        <f>B44*$G$18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E44" s="6">
-        <f>C44-$G$23</f>
+        <f t="shared" si="1"/>
         <v>14846250</v>
       </c>
       <c r="F44" s="6">
-        <f>B44*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>1750000</v>
       </c>
       <c r="G44" s="6">
-        <f>C44-$G$16</f>
+        <f t="shared" si="3"/>
         <v>13865000</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.4583333333333333</v>
       </c>
     </row>
@@ -1484,34 +1501,32 @@
         <v>25000</v>
       </c>
       <c r="C45" s="6">
-        <f>$G$17+($G$16/(B45*$G$18))</f>
+        <f t="shared" si="4"/>
         <v>15005000</v>
       </c>
       <c r="D45" s="4">
-        <f>B45*$G$18</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E45" s="6">
-        <f>C45-$G$23</f>
+        <f t="shared" si="1"/>
         <v>14786250</v>
       </c>
       <c r="F45" s="6">
-        <f>B45*($G$21*(1-$G$15))</f>
+        <f t="shared" si="2"/>
         <v>2187500</v>
       </c>
       <c r="G45" s="6">
-        <f>C45-$G$16</f>
+        <f t="shared" si="3"/>
         <v>13805000</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.8229166666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B25:H26"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
@@ -1519,9 +1534,6 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1530,10 +1542,19 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
+    <hyperlink ref="C21" r:id="rId2" xr:uid="{5DD29EC0-95D4-4200-ABC6-1A5BD540B1D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1551,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FF274-E9A4-46A8-8F07-0B043A01F8C8}">
-  <dimension ref="B4:I14"/>
+  <dimension ref="B4:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1564,157 +1585,163 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="23" t="s">
-        <v>42</v>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>14589176</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="E4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="23" t="s">
-        <v>43</v>
+      <c r="B5" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>14765000</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="23" t="s">
-        <v>44</v>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="C6">
         <f>C5-C4</f>
         <v>175824</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="23" t="s">
-        <v>45</v>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="23" t="s">
-        <v>46</v>
+      <c r="B8" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="C8">
         <f>C6*2</f>
         <v>351648</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="23" t="s">
-        <v>47</v>
+      <c r="B9" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C9">
         <f>C8/60</f>
         <v>5860.8</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="23" t="s">
-        <v>48</v>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="C10">
         <f>C9/60</f>
         <v>97.68</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="23" t="s">
-        <v>49</v>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C11">
         <f>C10/24</f>
         <v>4.07</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="23" t="s">
-        <v>50</v>
+      <c r="B12" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="C12">
         <f>C11/7</f>
         <v>0.58142857142857152</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="23" t="s">
-        <v>51</v>
+      <c r="B13" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C13">
         <f>C12/4</f>
         <v>0.14535714285714288</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="23" t="s">
-        <v>52</v>
+      <c r="B14" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="C14">
         <f>C13/12</f>
         <v>1.2113095238095241E-2</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="26">
+        <f ca="1">NOW()+C11</f>
+        <v>44375.88591921296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1744,36 +1771,36 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>38</v>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
+      <c r="E3" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F3" s="4">
         <v>51</v>
@@ -1783,16 +1810,16 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="4">
@@ -1803,16 +1830,16 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>40</v>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="4">
@@ -1823,16 +1850,16 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>54</v>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="4">
@@ -1843,16 +1870,16 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>41</v>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="4">

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30BC59A-FC4A-4C94-AA7C-A0FE7AC3FD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7477B6B-AD01-4ADC-A818-43DC00D777D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
     <sheet name="Block Time Assistance Calculato" sheetId="4" r:id="rId2"/>
-    <sheet name="Dropdown Data" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Dropdown Data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>JENN</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Registration Cutoff At</t>
   </si>
   <si>
-    <t>The numbers below are estimates.  The blockends truly calculates based on the wallets registration block and those will unpredictably vary.                                                                              Also due to rounding, there is a possibility that there is "mine dust" left over following the blockends.  This is withdrawable assuming all miners have claimed.</t>
-  </si>
-  <si>
     <t>Estimated Fees Generated for Mine Owner</t>
   </si>
   <si>
@@ -204,6 +201,18 @@
   </si>
   <si>
     <t>TJ Fee Percentage</t>
+  </si>
+  <si>
+    <t>Estimated Date/Time:</t>
+  </si>
+  <si>
+    <t>Owner's Wallet</t>
+  </si>
+  <si>
+    <t>0xfDC30bD4F4500cB2835Bc1808F5d3BA8a1aeBb1B</t>
+  </si>
+  <si>
+    <t>The numbers below are estimates.  The blockends truly calculates based on the wallets registration block and those will unpredictably vary.                                                                                                                                      Also due to rounding, there is a possibility that there is "mine dust" left over following the blockends.  This is withdrawable assuming all miners have claimed.</t>
   </si>
 </sst>
 </file>
@@ -289,7 +298,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,6 +338,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,6 +360,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -356,13 +375,9 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -387,14 +402,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>633413</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -425,7 +440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="19050"/>
+          <a:off x="2414587" y="19050"/>
           <a:ext cx="6610351" cy="1771651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -737,14 +752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B10:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19.46484375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.19921875" customWidth="1"/>
     <col min="5" max="5" width="16.265625" customWidth="1"/>
     <col min="6" max="6" width="20.19921875" customWidth="1"/>
@@ -766,38 +781,38 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="18" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
@@ -816,15 +831,15 @@
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19">
+      <c r="E15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="22">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
@@ -833,14 +848,14 @@
       <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20">
         <v>1200000</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
@@ -849,14 +864,14 @@
       <c r="C17" s="11">
         <v>18</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="24">
-        <v>14765000</v>
-      </c>
-      <c r="H17" s="24"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20">
+        <v>14750000</v>
+      </c>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
@@ -865,14 +880,14 @@
       <c r="C18" s="12">
         <v>8999999</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="24">
+      <c r="F18" s="19"/>
+      <c r="G18" s="23">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
@@ -881,79 +896,84 @@
       <c r="C19" s="12">
         <v>599999</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="18">
+      <c r="F19" s="19"/>
+      <c r="G19" s="21">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
-        <v>383</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>375</v>
+      </c>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="16" t="str">
+        <v>52</v>
+      </c>
+      <c r="E20" s="19" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="21">
+      <c r="F20" s="19"/>
+      <c r="G20" s="25">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="16" t="str">
+        <v>53</v>
+      </c>
+      <c r="E21" s="19" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17">
+      <c r="F21" s="19"/>
+      <c r="G21" s="20">
         <v>175</v>
       </c>
-      <c r="H21" s="17"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="22">
+      <c r="F22" s="19"/>
+      <c r="G22" s="26">
         <f>G21/G18</f>
         <v>875000</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C23" s="4"/>
-      <c r="E23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="23">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="27">
         <f>G22*0.25</f>
         <v>218750</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
@@ -963,24 +983,24 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="B25" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
@@ -996,40 +1016,42 @@
         <v>18</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
+      <c r="B28" s="10">
+        <v>250</v>
+      </c>
       <c r="C28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
-        <v>0</v>
+        <v>38750000</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D45" si="0">B28*$G$18</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:E45" si="1">C28-$G$23</f>
-        <v>-218750</v>
+        <f>C28-$G$23</f>
+        <v>38531250</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" ref="F28:F45" si="2">B28*($G$21*(1-$G$15))</f>
-        <v>0</v>
+        <f t="shared" ref="F28:F45" si="1">B28*($G$21*(1-$G$15))</f>
+        <v>21875</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ref="G28:G45" si="3">C28-$G$16</f>
-        <v>-1200000</v>
+        <f>C28-$G$17</f>
+        <v>24000000</v>
       </c>
       <c r="H28" s="4">
         <f>F28/$G$16</f>
-        <v>0</v>
+        <v>1.8229166666666668E-2</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.45">
@@ -1037,24 +1059,24 @@
         <v>100</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" ref="C29:C45" si="4">$G$17+($G$16/(B29*$G$18))</f>
-        <v>74765000</v>
+        <f t="shared" ref="C29:C45" si="2">$G$17+($G$16/(B29*$G$18))</f>
+        <v>74750000</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="E29" s="6">
+        <f t="shared" ref="E29:E45" si="3">C29-$G$23</f>
+        <v>74531250</v>
+      </c>
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
-        <v>74546250</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="2"/>
         <v>8750</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" si="3"/>
-        <v>73565000</v>
+      <c r="G29" s="15">
+        <f t="shared" ref="G29:G45" si="4">C29-$G$17</f>
+        <v>60000000</v>
       </c>
       <c r="H29" s="4">
         <f>F29/$G$16</f>
@@ -1066,24 +1088,24 @@
         <v>300</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="4"/>
-        <v>34765000</v>
+        <f t="shared" si="2"/>
+        <v>34750000</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>34531250</v>
+      </c>
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
-        <v>34546250</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="2"/>
         <v>26250</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" si="3"/>
-        <v>33565000</v>
+      <c r="G30" s="15">
+        <f t="shared" si="4"/>
+        <v>20000000</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
@@ -1095,24 +1117,24 @@
         <v>500</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="4"/>
-        <v>26765000</v>
+        <f t="shared" si="2"/>
+        <v>26750000</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="E31" s="6">
+        <f t="shared" si="3"/>
+        <v>26531250</v>
+      </c>
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
-        <v>26546250</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="2"/>
         <v>43750</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="3"/>
-        <v>25565000</v>
+      <c r="G31" s="15">
+        <f t="shared" si="4"/>
+        <v>12000000</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="5"/>
@@ -1124,24 +1146,24 @@
         <v>700</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="4"/>
-        <v>23336428.571428571</v>
+        <f t="shared" si="2"/>
+        <v>23321428.571428571</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="E32" s="6">
+        <f t="shared" si="3"/>
+        <v>23102678.571428571</v>
+      </c>
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>23117678.571428571</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="2"/>
         <v>61250</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" si="3"/>
-        <v>22136428.571428571</v>
+      <c r="G32" s="15">
+        <f t="shared" si="4"/>
+        <v>8571428.5714285709</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="5"/>
@@ -1153,24 +1175,24 @@
         <v>1000</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="4"/>
-        <v>20765000</v>
+        <f t="shared" si="2"/>
+        <v>20750000</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E33" s="6">
+        <f t="shared" si="3"/>
+        <v>20531250</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
-        <v>20546250</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="2"/>
         <v>87500</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="3"/>
-        <v>19565000</v>
+      <c r="G33" s="15">
+        <f t="shared" si="4"/>
+        <v>6000000</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="5"/>
@@ -1182,24 +1204,24 @@
         <v>1500</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="4"/>
-        <v>18765000</v>
+        <f t="shared" si="2"/>
+        <v>18750000</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="E34" s="6">
+        <f t="shared" si="3"/>
+        <v>18531250</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>18546250</v>
-      </c>
-      <c r="F34" s="6">
-        <f t="shared" si="2"/>
         <v>131250</v>
       </c>
-      <c r="G34" s="6">
-        <f t="shared" si="3"/>
-        <v>17565000</v>
+      <c r="G34" s="15">
+        <f t="shared" si="4"/>
+        <v>4000000</v>
       </c>
       <c r="H34" s="4">
         <f t="shared" si="5"/>
@@ -1211,24 +1233,24 @@
         <v>2000</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="4"/>
-        <v>17765000</v>
+        <f t="shared" si="2"/>
+        <v>17750000</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="E35" s="6">
+        <f t="shared" si="3"/>
+        <v>17531250</v>
+      </c>
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
-        <v>17546250</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="2"/>
         <v>175000</v>
       </c>
-      <c r="G35" s="6">
-        <f t="shared" si="3"/>
-        <v>16565000</v>
+      <c r="G35" s="15">
+        <f t="shared" si="4"/>
+        <v>3000000</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="5"/>
@@ -1240,24 +1262,24 @@
         <v>2500</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="4"/>
-        <v>17165000</v>
+        <f t="shared" si="2"/>
+        <v>17150000</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E36" s="6">
+        <f t="shared" si="3"/>
+        <v>16931250</v>
+      </c>
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
-        <v>16946250</v>
-      </c>
-      <c r="F36" s="6">
-        <f t="shared" si="2"/>
         <v>218750</v>
       </c>
-      <c r="G36" s="6">
-        <f t="shared" si="3"/>
-        <v>15965000</v>
+      <c r="G36" s="15">
+        <f t="shared" si="4"/>
+        <v>2400000</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="5"/>
@@ -1269,24 +1291,24 @@
         <v>3000</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="4"/>
-        <v>16765000</v>
+        <f t="shared" si="2"/>
+        <v>16750000</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="E37" s="6">
+        <f t="shared" si="3"/>
+        <v>16531250</v>
+      </c>
+      <c r="F37" s="6">
         <f t="shared" si="1"/>
-        <v>16546250</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="2"/>
         <v>262500</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="3"/>
-        <v>15565000</v>
+      <c r="G37" s="15">
+        <f t="shared" si="4"/>
+        <v>2000000</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="5"/>
@@ -1298,24 +1320,24 @@
         <v>3500</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="4"/>
-        <v>16479285.714285715</v>
+        <f t="shared" si="2"/>
+        <v>16464285.714285715</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="E38" s="6">
+        <f t="shared" si="3"/>
+        <v>16245535.714285715</v>
+      </c>
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
-        <v>16260535.714285715</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="2"/>
         <v>306250</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="3"/>
-        <v>15279285.714285715</v>
+      <c r="G38" s="15">
+        <f t="shared" si="4"/>
+        <v>1714285.7142857146</v>
       </c>
       <c r="H38" s="4">
         <f t="shared" si="5"/>
@@ -1327,24 +1349,24 @@
         <v>4000</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="4"/>
-        <v>16265000</v>
+        <f t="shared" si="2"/>
+        <v>16250000</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="E39" s="6">
+        <f t="shared" si="3"/>
+        <v>16031250</v>
+      </c>
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
-        <v>16046250</v>
-      </c>
-      <c r="F39" s="6">
-        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="G39" s="6">
-        <f t="shared" si="3"/>
-        <v>15065000</v>
+      <c r="G39" s="15">
+        <f t="shared" si="4"/>
+        <v>1500000</v>
       </c>
       <c r="H39" s="4">
         <f t="shared" si="5"/>
@@ -1356,24 +1378,24 @@
         <v>4500</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="4"/>
-        <v>16098333.333333334</v>
+        <f t="shared" si="2"/>
+        <v>16083333.333333334</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="E40" s="6">
+        <f t="shared" si="3"/>
+        <v>15864583.333333334</v>
+      </c>
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
-        <v>15879583.333333334</v>
-      </c>
-      <c r="F40" s="6">
-        <f t="shared" si="2"/>
         <v>393750</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="3"/>
-        <v>14898333.333333334</v>
+      <c r="G40" s="15">
+        <f t="shared" si="4"/>
+        <v>1333333.333333334</v>
       </c>
       <c r="H40" s="4">
         <f t="shared" si="5"/>
@@ -1385,24 +1407,24 @@
         <v>5000</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" si="4"/>
-        <v>15965000</v>
+        <f t="shared" si="2"/>
+        <v>15950000</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="6">
+        <f t="shared" si="3"/>
+        <v>15731250</v>
+      </c>
+      <c r="F41" s="6">
         <f t="shared" si="1"/>
-        <v>15746250</v>
-      </c>
-      <c r="F41" s="6">
-        <f t="shared" si="2"/>
         <v>437500</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="3"/>
-        <v>14765000</v>
+      <c r="G41" s="15">
+        <f t="shared" si="4"/>
+        <v>1200000</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" si="5"/>
@@ -1414,24 +1436,24 @@
         <v>10000</v>
       </c>
       <c r="C42" s="6">
-        <f t="shared" si="4"/>
-        <v>15365000</v>
+        <f t="shared" si="2"/>
+        <v>15350000</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E42" s="6">
+        <f t="shared" si="3"/>
+        <v>15131250</v>
+      </c>
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
-        <v>15146250</v>
-      </c>
-      <c r="F42" s="6">
-        <f t="shared" si="2"/>
         <v>875000</v>
       </c>
-      <c r="G42" s="6">
-        <f t="shared" si="3"/>
-        <v>14165000</v>
+      <c r="G42" s="15">
+        <f t="shared" si="4"/>
+        <v>600000</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="5"/>
@@ -1443,24 +1465,24 @@
         <v>15000</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" si="4"/>
-        <v>15165000</v>
+        <f t="shared" si="2"/>
+        <v>15150000</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E43" s="6">
+        <f t="shared" si="3"/>
+        <v>14931250</v>
+      </c>
+      <c r="F43" s="6">
         <f t="shared" si="1"/>
-        <v>14946250</v>
-      </c>
-      <c r="F43" s="6">
-        <f t="shared" si="2"/>
         <v>1312500</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="3"/>
-        <v>13965000</v>
+      <c r="G43" s="15">
+        <f t="shared" si="4"/>
+        <v>400000</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="5"/>
@@ -1472,24 +1494,24 @@
         <v>20000</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" si="4"/>
-        <v>15065000</v>
+        <f t="shared" si="2"/>
+        <v>15050000</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E44" s="6">
+        <f t="shared" si="3"/>
+        <v>14831250</v>
+      </c>
+      <c r="F44" s="6">
         <f t="shared" si="1"/>
-        <v>14846250</v>
-      </c>
-      <c r="F44" s="6">
-        <f t="shared" si="2"/>
         <v>1750000</v>
       </c>
-      <c r="G44" s="6">
-        <f t="shared" si="3"/>
-        <v>13865000</v>
+      <c r="G44" s="15">
+        <f t="shared" si="4"/>
+        <v>300000</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="5"/>
@@ -1501,24 +1523,24 @@
         <v>25000</v>
       </c>
       <c r="C45" s="6">
-        <f t="shared" si="4"/>
-        <v>15005000</v>
+        <f t="shared" si="2"/>
+        <v>14990000</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E45" s="6">
+        <f t="shared" si="3"/>
+        <v>14771250</v>
+      </c>
+      <c r="F45" s="6">
         <f t="shared" si="1"/>
-        <v>14786250</v>
-      </c>
-      <c r="F45" s="6">
-        <f t="shared" si="2"/>
         <v>2187500</v>
       </c>
-      <c r="G45" s="6">
-        <f t="shared" si="3"/>
-        <v>13805000</v>
+      <c r="G45" s="15">
+        <f t="shared" si="4"/>
+        <v>240000</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="5"/>
@@ -1562,7 +1584,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Data'!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C22:C23</xm:sqref>
+          <xm:sqref>C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1575,7 +1597,7 @@
   <dimension ref="B4:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1586,161 +1608,164 @@
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>14589176</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
-        <v>14765000</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+        <v>14750000</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <f>C5-C4</f>
-        <v>175824</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+        <v>160824</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <f>C6*2</f>
-        <v>351648</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+        <v>321648</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <f>C8/60</f>
-        <v>5860.8</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+        <v>5360.8</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <f>C9/60</f>
-        <v>97.68</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+        <v>89.346666666666664</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <f>C10/24</f>
-        <v>4.07</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+        <v>3.7227777777777775</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <f>C11/7</f>
-        <v>0.58142857142857152</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+        <v>0.53182539682539676</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <f>C12/4</f>
-        <v>0.14535714285714288</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+        <v>0.13295634920634919</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <f>C13/12</f>
-        <v>1.2113095238095241E-2</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="26">
+        <v>1.1079695767195766E-2</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44375.88591921296</v>
+        <v>44375.70274479167</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1781,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1771,39 +1796,39 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="4">
         <v>0.5</v>
@@ -1811,10 +1836,10 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1823,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -1831,10 +1856,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -1851,10 +1876,10 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -1871,10 +1896,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7477B6B-AD01-4ADC-A818-43DC00D777D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A438467F-38B8-4357-BE63-98B481BF7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
     <sheet name="Block Time Assistance Calculato" sheetId="4" r:id="rId2"/>
-    <sheet name="Dropdown Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Dropdown Data" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,9 +92,6 @@
     <t>Miners Investment Recoup Blockspan</t>
   </si>
   <si>
-    <t>Registration Cutoff At</t>
-  </si>
-  <si>
     <t>Estimated Fees Generated for Mine Owner</t>
   </si>
   <si>
@@ -212,7 +209,10 @@
     <t>0xfDC30bD4F4500cB2835Bc1808F5d3BA8a1aeBb1B</t>
   </si>
   <si>
-    <t>The numbers below are estimates.  The blockends truly calculates based on the wallets registration block and those will unpredictably vary.                                                                                                                                      Also due to rounding, there is a possibility that there is "mine dust" left over following the blockends.  This is withdrawable assuming all miners have claimed.</t>
+    <t>The numbers below are estimates.  The blockends truly calculates based on the wallets registration block and those will unpredictably vary.                                                                                                                                                        Also due to rounding, there is a possibility that there is "mine dust" left over following the blockends.  This is withdrawable assuming all miners have claimed.</t>
+  </si>
+  <si>
+    <t>Estimated Total Earnings Per Wallet                                       (This number will vary with when wallets register and on what block)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -342,40 +342,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,15 +424,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
+      <xdr:colOff>576262</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,8 +461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2414587" y="19050"/>
-          <a:ext cx="6610351" cy="1771651"/>
+          <a:off x="2481262" y="152400"/>
+          <a:ext cx="6167438" cy="1666875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,27 +773,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B10:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.46484375" customWidth="1"/>
-    <col min="3" max="3" width="42.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -780,43 +801,43 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="14.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="str">
+    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="5"/>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="5"/>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -824,738 +845,742 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22">
+      <c r="D15" s="32"/>
+      <c r="E15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="27">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20">
+      <c r="F16" s="20"/>
+      <c r="G16" s="25">
         <v>1200000</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="11">
         <v>18</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20">
+      <c r="F17" s="20"/>
+      <c r="G17" s="25">
         <v>14750000</v>
       </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="12">
         <v>8999999</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="23">
+      <c r="F18" s="20"/>
+      <c r="G18" s="28">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="12">
         <v>599999</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21">
+      <c r="F19" s="20"/>
+      <c r="G19" s="26">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>375</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="19" t="str">
+        <v>51</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="20" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="25">
+      <c r="F20" s="20"/>
+      <c r="G20" s="21">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="19" t="str">
+        <v>52</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="20" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20">
-        <v>175</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F21" s="20"/>
+      <c r="G21" s="25">
+        <v>150</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="26">
+      <c r="F22" s="20"/>
+      <c r="G22" s="22">
         <f>G21/G18</f>
-        <v>875000</v>
-      </c>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+        <v>750000</v>
+      </c>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="27">
+      <c r="D23" s="32"/>
+      <c r="E23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="23">
         <f>G22*0.25</f>
-        <v>218750</v>
-      </c>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+        <v>187500</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="2:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="30"/>
+    </row>
+    <row r="27" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
-        <v>250</v>
-      </c>
-      <c r="C28" s="6">
+        <v>6820</v>
+      </c>
+      <c r="C28" s="32">
+        <f>G28*$G$18</f>
+        <v>175.95307917888576</v>
+      </c>
+      <c r="D28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
-        <v>38750000</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:D45" si="0">B28*$G$18</f>
-        <v>0.05</v>
-      </c>
-      <c r="E28" s="6">
-        <f>C28-$G$23</f>
-        <v>38531250</v>
+        <v>15629765.395894429</v>
+      </c>
+      <c r="E28" s="4">
+        <f>B28*$G$18</f>
+        <v>1.3640000000000001</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" ref="F28:F45" si="1">B28*($G$21*(1-$G$15))</f>
-        <v>21875</v>
+        <f>B28*($G$21*(1-$G$15))</f>
+        <v>511500</v>
       </c>
       <c r="G28" s="6">
-        <f>C28-$G$17</f>
-        <v>24000000</v>
+        <f>D28-$G$17</f>
+        <v>879765.39589442872</v>
       </c>
       <c r="H28" s="4">
         <f>F28/$G$16</f>
-        <v>1.8229166666666668E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.42625000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="6">
-        <f t="shared" ref="C29:C45" si="2">$G$17+($G$16/(B29*$G$18))</f>
+      <c r="C29" s="32">
+        <f t="shared" ref="C29:C45" si="0">G29*$G$18</f>
+        <v>12000</v>
+      </c>
+      <c r="D29" s="6">
+        <f>$G$17+($G$16/(B29*$G$18))</f>
         <v>74750000</v>
       </c>
-      <c r="D29" s="4">
-        <f t="shared" si="0"/>
+      <c r="E29" s="4">
+        <f>B29*$G$18</f>
         <v>0.02</v>
       </c>
-      <c r="E29" s="6">
-        <f t="shared" ref="E29:E45" si="3">C29-$G$23</f>
-        <v>74531250</v>
-      </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>8750</v>
+        <f>B29*($G$21*(1-$G$15))</f>
+        <v>7500</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" ref="G29:G45" si="4">C29-$G$17</f>
+        <f>D29-$G$17</f>
         <v>60000000</v>
       </c>
       <c r="H29" s="4">
         <f>F29/$G$16</f>
-        <v>7.2916666666666668E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>300</v>
       </c>
-      <c r="C30" s="6">
-        <f t="shared" si="2"/>
+      <c r="C30" s="32">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D30" s="6">
+        <f>$G$17+($G$16/(B30*$G$18))</f>
         <v>34750000</v>
       </c>
-      <c r="D30" s="4">
-        <f t="shared" si="0"/>
+      <c r="E30" s="4">
+        <f>B30*$G$18</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="E30" s="6">
-        <f t="shared" si="3"/>
-        <v>34531250</v>
-      </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
-        <v>26250</v>
+        <f>B30*($G$21*(1-$G$15))</f>
+        <v>22500</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="4"/>
+        <f>D30-$G$17</f>
         <v>20000000</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
-        <v>2.1874999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+        <f t="shared" ref="H30:H45" si="1">F30/$G$16</f>
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>500</v>
       </c>
-      <c r="C31" s="6">
-        <f t="shared" si="2"/>
+      <c r="C31" s="32">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="D31" s="6">
+        <f>$G$17+($G$16/(B31*$G$18))</f>
         <v>26750000</v>
       </c>
-      <c r="D31" s="4">
-        <f t="shared" si="0"/>
+      <c r="E31" s="4">
+        <f>B31*$G$18</f>
         <v>0.1</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" si="3"/>
-        <v>26531250</v>
-      </c>
       <c r="F31" s="6">
+        <f>B31*($G$21*(1-$G$15))</f>
+        <v>37500</v>
+      </c>
+      <c r="G31" s="15">
+        <f>D31-$G$17</f>
+        <v>12000000</v>
+      </c>
+      <c r="H31" s="4">
         <f t="shared" si="1"/>
-        <v>43750</v>
-      </c>
-      <c r="G31" s="15">
-        <f t="shared" si="4"/>
-        <v>12000000</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="5"/>
-        <v>3.6458333333333336E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>700</v>
       </c>
-      <c r="C32" s="6">
-        <f t="shared" si="2"/>
+      <c r="C32" s="32">
+        <f t="shared" si="0"/>
+        <v>1714.2857142857142</v>
+      </c>
+      <c r="D32" s="6">
+        <f>$G$17+($G$16/(B32*$G$18))</f>
         <v>23321428.571428571</v>
       </c>
-      <c r="D32" s="4">
-        <f t="shared" si="0"/>
+      <c r="E32" s="4">
+        <f>B32*$G$18</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="E32" s="6">
-        <f t="shared" si="3"/>
-        <v>23102678.571428571</v>
-      </c>
       <c r="F32" s="6">
+        <f>B32*($G$21*(1-$G$15))</f>
+        <v>52500</v>
+      </c>
+      <c r="G32" s="15">
+        <f>D32-$G$17</f>
+        <v>8571428.5714285709</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="1"/>
-        <v>61250</v>
-      </c>
-      <c r="G32" s="15">
-        <f t="shared" si="4"/>
-        <v>8571428.5714285709</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="5"/>
-        <v>5.1041666666666666E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+        <v>4.3749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>1000</v>
       </c>
-      <c r="C33" s="6">
-        <f t="shared" si="2"/>
+      <c r="C33" s="32">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="D33" s="6">
+        <f>$G$17+($G$16/(B33*$G$18))</f>
         <v>20750000</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" si="0"/>
+      <c r="E33" s="4">
+        <f>B33*$G$18</f>
         <v>0.2</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="3"/>
-        <v>20531250</v>
-      </c>
       <c r="F33" s="6">
+        <f>B33*($G$21*(1-$G$15))</f>
+        <v>75000</v>
+      </c>
+      <c r="G33" s="15">
+        <f>D33-$G$17</f>
+        <v>6000000</v>
+      </c>
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
-        <v>87500</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" si="4"/>
-        <v>6000000</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="5"/>
-        <v>7.2916666666666671E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>1500</v>
       </c>
-      <c r="C34" s="6">
-        <f t="shared" si="2"/>
+      <c r="C34" s="32">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D34" s="6">
+        <f>$G$17+($G$16/(B34*$G$18))</f>
         <v>18750000</v>
       </c>
-      <c r="D34" s="4">
-        <f t="shared" si="0"/>
+      <c r="E34" s="4">
+        <f>B34*$G$18</f>
         <v>0.3</v>
       </c>
-      <c r="E34" s="6">
-        <f t="shared" si="3"/>
-        <v>18531250</v>
-      </c>
       <c r="F34" s="6">
+        <f>B34*($G$21*(1-$G$15))</f>
+        <v>112500</v>
+      </c>
+      <c r="G34" s="15">
+        <f>D34-$G$17</f>
+        <v>4000000</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="1"/>
-        <v>131250</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="4"/>
-        <v>4000000</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="5"/>
-        <v>0.109375</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>2000</v>
       </c>
-      <c r="C35" s="6">
-        <f t="shared" si="2"/>
+      <c r="C35" s="32">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="D35" s="6">
+        <f>$G$17+($G$16/(B35*$G$18))</f>
         <v>17750000</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" si="0"/>
+      <c r="E35" s="4">
+        <f>B35*$G$18</f>
         <v>0.4</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="3"/>
-        <v>17531250</v>
-      </c>
       <c r="F35" s="6">
+        <f>B35*($G$21*(1-$G$15))</f>
+        <v>150000</v>
+      </c>
+      <c r="G35" s="15">
+        <f>D35-$G$17</f>
+        <v>3000000</v>
+      </c>
+      <c r="H35" s="4">
         <f t="shared" si="1"/>
-        <v>175000</v>
-      </c>
-      <c r="G35" s="15">
-        <f t="shared" si="4"/>
-        <v>3000000</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="5"/>
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2500</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" si="2"/>
+      <c r="C36" s="32">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D36" s="6">
+        <f>$G$17+($G$16/(B36*$G$18))</f>
         <v>17150000</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" si="0"/>
+      <c r="E36" s="4">
+        <f>B36*$G$18</f>
         <v>0.5</v>
       </c>
-      <c r="E36" s="6">
-        <f t="shared" si="3"/>
-        <v>16931250</v>
-      </c>
       <c r="F36" s="6">
+        <f>B36*($G$21*(1-$G$15))</f>
+        <v>187500</v>
+      </c>
+      <c r="G36" s="15">
+        <f>D36-$G$17</f>
+        <v>2400000</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="1"/>
-        <v>218750</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="4"/>
-        <v>2400000</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="5"/>
-        <v>0.18229166666666666</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>3000</v>
       </c>
-      <c r="C37" s="6">
-        <f t="shared" si="2"/>
+      <c r="C37" s="32">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D37" s="6">
+        <f>$G$17+($G$16/(B37*$G$18))</f>
         <v>16750000</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="0"/>
+      <c r="E37" s="4">
+        <f>B37*$G$18</f>
         <v>0.6</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="3"/>
-        <v>16531250</v>
-      </c>
       <c r="F37" s="6">
+        <f>B37*($G$21*(1-$G$15))</f>
+        <v>225000</v>
+      </c>
+      <c r="G37" s="15">
+        <f>D37-$G$17</f>
+        <v>2000000</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="1"/>
-        <v>262500</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="4"/>
-        <v>2000000</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="5"/>
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>3500</v>
       </c>
-      <c r="C38" s="6">
-        <f t="shared" si="2"/>
+      <c r="C38" s="32">
+        <f t="shared" si="0"/>
+        <v>342.85714285714295</v>
+      </c>
+      <c r="D38" s="6">
+        <f>$G$17+($G$16/(B38*$G$18))</f>
         <v>16464285.714285715</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="0"/>
+      <c r="E38" s="4">
+        <f>B38*$G$18</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="E38" s="6">
-        <f t="shared" si="3"/>
-        <v>16245535.714285715</v>
-      </c>
       <c r="F38" s="6">
+        <f>B38*($G$21*(1-$G$15))</f>
+        <v>262500</v>
+      </c>
+      <c r="G38" s="15">
+        <f>D38-$G$17</f>
+        <v>1714285.7142857146</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="1"/>
-        <v>306250</v>
-      </c>
-      <c r="G38" s="15">
-        <f t="shared" si="4"/>
-        <v>1714285.7142857146</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="5"/>
-        <v>0.25520833333333331</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>4000</v>
       </c>
-      <c r="C39" s="6">
-        <f t="shared" si="2"/>
+      <c r="C39" s="32">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D39" s="6">
+        <f>$G$17+($G$16/(B39*$G$18))</f>
         <v>16250000</v>
       </c>
-      <c r="D39" s="4">
-        <f t="shared" si="0"/>
+      <c r="E39" s="4">
+        <f>B39*$G$18</f>
         <v>0.8</v>
       </c>
-      <c r="E39" s="6">
-        <f t="shared" si="3"/>
-        <v>16031250</v>
-      </c>
       <c r="F39" s="6">
+        <f>B39*($G$21*(1-$G$15))</f>
+        <v>300000</v>
+      </c>
+      <c r="G39" s="15">
+        <f>D39-$G$17</f>
+        <v>1500000</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="1"/>
-        <v>350000</v>
-      </c>
-      <c r="G39" s="15">
-        <f t="shared" si="4"/>
-        <v>1500000</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" si="5"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>4500</v>
       </c>
-      <c r="C40" s="6">
-        <f t="shared" si="2"/>
+      <c r="C40" s="32">
+        <f t="shared" si="0"/>
+        <v>266.6666666666668</v>
+      </c>
+      <c r="D40" s="6">
+        <f>$G$17+($G$16/(B40*$G$18))</f>
         <v>16083333.333333334</v>
       </c>
-      <c r="D40" s="4">
-        <f t="shared" si="0"/>
+      <c r="E40" s="4">
+        <f>B40*$G$18</f>
         <v>0.9</v>
       </c>
-      <c r="E40" s="6">
-        <f t="shared" si="3"/>
-        <v>15864583.333333334</v>
-      </c>
       <c r="F40" s="6">
+        <f>B40*($G$21*(1-$G$15))</f>
+        <v>337500</v>
+      </c>
+      <c r="G40" s="15">
+        <f>D40-$G$17</f>
+        <v>1333333.333333334</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="1"/>
-        <v>393750</v>
-      </c>
-      <c r="G40" s="15">
-        <f t="shared" si="4"/>
-        <v>1333333.333333334</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="5"/>
-        <v>0.328125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>5000</v>
       </c>
-      <c r="C41" s="6">
-        <f t="shared" si="2"/>
+      <c r="C41" s="32">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D41" s="6">
+        <f>$G$17+($G$16/(B41*$G$18))</f>
         <v>15950000</v>
       </c>
-      <c r="D41" s="4">
-        <f t="shared" si="0"/>
+      <c r="E41" s="4">
+        <f>B41*$G$18</f>
         <v>1</v>
       </c>
-      <c r="E41" s="6">
-        <f t="shared" si="3"/>
-        <v>15731250</v>
-      </c>
       <c r="F41" s="6">
+        <f>B41*($G$21*(1-$G$15))</f>
+        <v>375000</v>
+      </c>
+      <c r="G41" s="15">
+        <f>D41-$G$17</f>
+        <v>1200000</v>
+      </c>
+      <c r="H41" s="4">
         <f t="shared" si="1"/>
-        <v>437500</v>
-      </c>
-      <c r="G41" s="15">
-        <f t="shared" si="4"/>
-        <v>1200000</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="5"/>
-        <v>0.36458333333333331</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>10000</v>
       </c>
-      <c r="C42" s="6">
-        <f t="shared" si="2"/>
+      <c r="C42" s="32">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D42" s="6">
+        <f>$G$17+($G$16/(B42*$G$18))</f>
         <v>15350000</v>
       </c>
-      <c r="D42" s="4">
-        <f t="shared" si="0"/>
+      <c r="E42" s="4">
+        <f>B42*$G$18</f>
         <v>2</v>
       </c>
-      <c r="E42" s="6">
-        <f t="shared" si="3"/>
-        <v>15131250</v>
-      </c>
       <c r="F42" s="6">
+        <f>B42*($G$21*(1-$G$15))</f>
+        <v>750000</v>
+      </c>
+      <c r="G42" s="15">
+        <f>D42-$G$17</f>
+        <v>600000</v>
+      </c>
+      <c r="H42" s="4">
         <f t="shared" si="1"/>
-        <v>875000</v>
-      </c>
-      <c r="G42" s="15">
-        <f t="shared" si="4"/>
-        <v>600000</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="5"/>
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>15000</v>
       </c>
-      <c r="C43" s="6">
-        <f t="shared" si="2"/>
+      <c r="C43" s="32">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <f>$G$17+($G$16/(B43*$G$18))</f>
         <v>15150000</v>
       </c>
-      <c r="D43" s="4">
-        <f t="shared" si="0"/>
+      <c r="E43" s="4">
+        <f>B43*$G$18</f>
         <v>3</v>
       </c>
-      <c r="E43" s="6">
-        <f t="shared" si="3"/>
-        <v>14931250</v>
-      </c>
       <c r="F43" s="6">
+        <f>B43*($G$21*(1-$G$15))</f>
+        <v>1125000</v>
+      </c>
+      <c r="G43" s="15">
+        <f>D43-$G$17</f>
+        <v>400000</v>
+      </c>
+      <c r="H43" s="4">
         <f t="shared" si="1"/>
-        <v>1312500</v>
-      </c>
-      <c r="G43" s="15">
-        <f t="shared" si="4"/>
-        <v>400000</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="5"/>
-        <v>1.09375</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>20000</v>
       </c>
-      <c r="C44" s="6">
-        <f t="shared" si="2"/>
+      <c r="C44" s="32">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D44" s="6">
+        <f>$G$17+($G$16/(B44*$G$18))</f>
         <v>15050000</v>
       </c>
-      <c r="D44" s="4">
-        <f t="shared" si="0"/>
+      <c r="E44" s="4">
+        <f>B44*$G$18</f>
         <v>4</v>
       </c>
-      <c r="E44" s="6">
-        <f t="shared" si="3"/>
-        <v>14831250</v>
-      </c>
       <c r="F44" s="6">
+        <f>B44*($G$21*(1-$G$15))</f>
+        <v>1500000</v>
+      </c>
+      <c r="G44" s="15">
+        <f>D44-$G$17</f>
+        <v>300000</v>
+      </c>
+      <c r="H44" s="4">
         <f t="shared" si="1"/>
-        <v>1750000</v>
-      </c>
-      <c r="G44" s="15">
-        <f t="shared" si="4"/>
-        <v>300000</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4583333333333333</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>25000</v>
       </c>
-      <c r="C45" s="6">
-        <f t="shared" si="2"/>
+      <c r="C45" s="32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D45" s="6">
+        <f>$G$17+($G$16/(B45*$G$18))</f>
         <v>14990000</v>
       </c>
-      <c r="D45" s="4">
-        <f t="shared" si="0"/>
+      <c r="E45" s="4">
+        <f>B45*$G$18</f>
         <v>5</v>
       </c>
-      <c r="E45" s="6">
-        <f t="shared" si="3"/>
-        <v>14771250</v>
-      </c>
       <c r="F45" s="6">
+        <f>B45*($G$21*(1-$G$15))</f>
+        <v>1875000</v>
+      </c>
+      <c r="G45" s="15">
+        <f>D45-$G$17</f>
+        <v>240000</v>
+      </c>
+      <c r="H45" s="4">
         <f t="shared" si="1"/>
-        <v>2187500</v>
-      </c>
-      <c r="G45" s="15">
-        <f t="shared" si="4"/>
-        <v>240000</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="5"/>
-        <v>1.8229166666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B25:H26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1569,6 +1594,13 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
@@ -1584,7 +1616,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Data'!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C22</xm:sqref>
+          <xm:sqref>C22:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1600,172 +1632,172 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>14589176</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>14750000</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <f>C5-C4</f>
         <v>160824</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <f>C6*2</f>
         <v>321648</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <f>C8/60</f>
         <v>5360.8</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <f>C9/60</f>
         <v>89.346666666666664</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <f>C10/24</f>
         <v>3.7227777777777775</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <f>C11/7</f>
         <v>0.53182539682539676</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <f>C12/4</f>
         <v>0.13295634920634919</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <f>C13/12</f>
         <v>1.1079695767195766E-2</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44375.70274479167</v>
+        <v>44376.403006481487</v>
       </c>
     </row>
   </sheetData>
@@ -1784,48 +1816,48 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" customWidth="1"/>
-    <col min="4" max="4" width="17.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.06640625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4">
         <v>50</v>
@@ -1834,12 +1866,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -1854,12 +1886,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -1874,12 +1906,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -1894,12 +1926,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A438467F-38B8-4357-BE63-98B481BF7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C1ECB-E353-48FF-8F15-73CB6AABEEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>JENN</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Amethyst</t>
-  </si>
-  <si>
-    <t>Registration Cutoff Runway</t>
   </si>
   <si>
     <t>https://bit.ly/2ShMFZj</t>
@@ -349,11 +346,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,40 +393,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,26 +771,26 @@
   <dimension ref="B10:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="45.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="9" max="9" width="20.73046875" customWidth="1"/>
+    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -801,43 +798,43 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="str">
+    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="25" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="31"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="31"/>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="31"/>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -845,59 +842,59 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="27">
+      <c r="D15" s="21"/>
+      <c r="E15" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="29">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="25">
+      <c r="F16" s="26"/>
+      <c r="G16" s="27">
         <v>1200000</v>
       </c>
-      <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="11">
         <v>18</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="25">
+      <c r="F17" s="26"/>
+      <c r="G17" s="27">
         <v>14750000</v>
       </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -905,16 +902,16 @@
         <v>8999999</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="28">
+      <c r="F18" s="26"/>
+      <c r="G18" s="30">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -922,124 +919,119 @@
         <v>599999</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="26">
+      <c r="F19" s="26"/>
+      <c r="G19" s="28">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>375</v>
       </c>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="20" t="str">
+        <v>50</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="26" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21">
+      <c r="F20" s="26"/>
+      <c r="G20" s="32">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="20" t="str">
+        <v>51</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="26" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="25">
+      <c r="F21" s="26"/>
+      <c r="G21" s="27">
         <v>150</v>
       </c>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22">
+      <c r="F22" s="26"/>
+      <c r="G22" s="33">
         <f>G21/G18</f>
         <v>750000</v>
       </c>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="23">
-        <f>G22*0.25</f>
-        <v>187500</v>
-      </c>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="21"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="30"/>
-    </row>
-    <row r="27" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>58</v>
+      <c r="C27" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>11</v>
@@ -1057,57 +1049,57 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
-        <v>6820</v>
-      </c>
-      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
         <f>G28*$G$18</f>
-        <v>175.95307917888576</v>
+        <v>1200000</v>
       </c>
       <c r="D28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
-        <v>15629765.395894429</v>
+        <v>6014750000</v>
       </c>
       <c r="E28" s="4">
-        <f>B28*$G$18</f>
-        <v>1.3640000000000001</v>
+        <f t="shared" ref="E28:E45" si="0">B28*$G$18</f>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F28" s="6">
-        <f>B28*($G$21*(1-$G$15))</f>
-        <v>511500</v>
+        <f t="shared" ref="F28:F45" si="1">B28*($G$21*(1-$G$15))</f>
+        <v>75</v>
       </c>
       <c r="G28" s="6">
-        <f>D28-$G$17</f>
-        <v>879765.39589442872</v>
+        <f t="shared" ref="G28:G45" si="2">D28-$G$17</f>
+        <v>6000000000</v>
       </c>
       <c r="H28" s="4">
         <f>F28/$G$16</f>
-        <v>0.42625000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6.2500000000000001E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
         <v>100</v>
       </c>
-      <c r="C29" s="32">
-        <f t="shared" ref="C29:C45" si="0">G29*$G$18</f>
+      <c r="C29" s="21">
+        <f t="shared" ref="C29:C45" si="3">G29*$G$18</f>
         <v>12000</v>
       </c>
       <c r="D29" s="6">
-        <f>$G$17+($G$16/(B29*$G$18))</f>
+        <f t="shared" ref="D29:D45" si="4">$G$17+($G$16/(B29*$G$18))</f>
         <v>74750000</v>
       </c>
       <c r="E29" s="4">
-        <f>B29*$G$18</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F29" s="6">
-        <f>B29*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>7500</v>
       </c>
       <c r="G29" s="15">
-        <f>D29-$G$17</f>
+        <f t="shared" si="2"/>
         <v>60000000</v>
       </c>
       <c r="H29" s="4">
@@ -1115,472 +1107,478 @@
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B30" s="4">
         <v>300</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="21">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="4"/>
+        <v>34750000</v>
+      </c>
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="D30" s="6">
-        <f>$G$17+($G$16/(B30*$G$18))</f>
-        <v>34750000</v>
-      </c>
-      <c r="E30" s="4">
-        <f>B30*$G$18</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="F30" s="6">
-        <f>B30*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>22500</v>
       </c>
       <c r="G30" s="15">
-        <f>D30-$G$17</f>
+        <f t="shared" si="2"/>
         <v>20000000</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:H45" si="1">F30/$G$16</f>
+        <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <v>500</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="21">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="4"/>
+        <v>26750000</v>
+      </c>
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="D31" s="6">
-        <f>$G$17+($G$16/(B31*$G$18))</f>
-        <v>26750000</v>
-      </c>
-      <c r="E31" s="4">
-        <f>B31*$G$18</f>
         <v>0.1</v>
       </c>
       <c r="F31" s="6">
-        <f>B31*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>37500</v>
       </c>
       <c r="G31" s="15">
-        <f>D31-$G$17</f>
+        <f t="shared" si="2"/>
         <v>12000000</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="4">
         <v>700</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="21">
+        <f t="shared" si="3"/>
+        <v>1714.2857142857142</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="4"/>
+        <v>23321428.571428571</v>
+      </c>
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>1714.2857142857142</v>
-      </c>
-      <c r="D32" s="6">
-        <f>$G$17+($G$16/(B32*$G$18))</f>
-        <v>23321428.571428571</v>
-      </c>
-      <c r="E32" s="4">
-        <f>B32*$G$18</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="F32" s="6">
-        <f>B32*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>52500</v>
       </c>
       <c r="G32" s="15">
-        <f>D32-$G$17</f>
+        <f t="shared" si="2"/>
         <v>8571428.5714285709</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.3749999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="4">
         <v>1000</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="21">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="4"/>
+        <v>20750000</v>
+      </c>
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="D33" s="6">
-        <f>$G$17+($G$16/(B33*$G$18))</f>
-        <v>20750000</v>
-      </c>
-      <c r="E33" s="4">
-        <f>B33*$G$18</f>
         <v>0.2</v>
       </c>
       <c r="F33" s="6">
-        <f>B33*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>75000</v>
       </c>
       <c r="G33" s="15">
-        <f>D33-$G$17</f>
+        <f t="shared" si="2"/>
         <v>6000000</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="4">
         <v>1500</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="21">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="4"/>
+        <v>18750000</v>
+      </c>
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="D34" s="6">
-        <f>$G$17+($G$16/(B34*$G$18))</f>
-        <v>18750000</v>
-      </c>
-      <c r="E34" s="4">
-        <f>B34*$G$18</f>
         <v>0.3</v>
       </c>
       <c r="F34" s="6">
-        <f>B34*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>112500</v>
       </c>
       <c r="G34" s="15">
-        <f>D34-$G$17</f>
+        <f t="shared" si="2"/>
         <v>4000000</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="4">
         <v>2000</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="21">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="4"/>
+        <v>17750000</v>
+      </c>
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="D35" s="6">
-        <f>$G$17+($G$16/(B35*$G$18))</f>
-        <v>17750000</v>
-      </c>
-      <c r="E35" s="4">
-        <f>B35*$G$18</f>
         <v>0.4</v>
       </c>
       <c r="F35" s="6">
-        <f>B35*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="G35" s="15">
-        <f>D35-$G$17</f>
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="4">
         <v>2500</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="21">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="4"/>
+        <v>17150000</v>
+      </c>
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="D36" s="6">
-        <f>$G$17+($G$16/(B36*$G$18))</f>
-        <v>17150000</v>
-      </c>
-      <c r="E36" s="4">
-        <f>B36*$G$18</f>
         <v>0.5</v>
       </c>
       <c r="F36" s="6">
-        <f>B36*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
       <c r="G36" s="15">
-        <f>D36-$G$17</f>
+        <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B37" s="4">
         <v>3000</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="21">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="4"/>
+        <v>16750000</v>
+      </c>
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D37" s="6">
-        <f>$G$17+($G$16/(B37*$G$18))</f>
-        <v>16750000</v>
-      </c>
-      <c r="E37" s="4">
-        <f>B37*$G$18</f>
         <v>0.6</v>
       </c>
       <c r="F37" s="6">
-        <f>B37*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>225000</v>
       </c>
       <c r="G37" s="15">
-        <f>D37-$G$17</f>
+        <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B38" s="4">
         <v>3500</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="21">
+        <f t="shared" si="3"/>
+        <v>342.85714285714295</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="4"/>
+        <v>16464285.714285715</v>
+      </c>
+      <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>342.85714285714295</v>
-      </c>
-      <c r="D38" s="6">
-        <f>$G$17+($G$16/(B38*$G$18))</f>
-        <v>16464285.714285715</v>
-      </c>
-      <c r="E38" s="4">
-        <f>B38*$G$18</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="F38" s="6">
-        <f>B38*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>262500</v>
       </c>
       <c r="G38" s="15">
-        <f>D38-$G$17</f>
+        <f t="shared" si="2"/>
         <v>1714285.7142857146</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.21875</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B39" s="4">
         <v>4000</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="21">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" si="4"/>
+        <v>16250000</v>
+      </c>
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="D39" s="6">
-        <f>$G$17+($G$16/(B39*$G$18))</f>
-        <v>16250000</v>
-      </c>
-      <c r="E39" s="4">
-        <f>B39*$G$18</f>
         <v>0.8</v>
       </c>
       <c r="F39" s="6">
-        <f>B39*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="G39" s="15">
-        <f>D39-$G$17</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B40" s="4">
         <v>4500</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="21">
+        <f t="shared" si="3"/>
+        <v>266.6666666666668</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="4"/>
+        <v>16083333.333333334</v>
+      </c>
+      <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>266.6666666666668</v>
-      </c>
-      <c r="D40" s="6">
-        <f>$G$17+($G$16/(B40*$G$18))</f>
-        <v>16083333.333333334</v>
-      </c>
-      <c r="E40" s="4">
-        <f>B40*$G$18</f>
         <v>0.9</v>
       </c>
       <c r="F40" s="6">
-        <f>B40*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>337500</v>
       </c>
       <c r="G40" s="15">
-        <f>D40-$G$17</f>
+        <f t="shared" si="2"/>
         <v>1333333.333333334</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.28125</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B41" s="4">
         <v>5000</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="21">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" si="4"/>
+        <v>15950000</v>
+      </c>
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="D41" s="6">
-        <f>$G$17+($G$16/(B41*$G$18))</f>
-        <v>15950000</v>
-      </c>
-      <c r="E41" s="4">
-        <f>B41*$G$18</f>
         <v>1</v>
       </c>
       <c r="F41" s="6">
-        <f>B41*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>375000</v>
       </c>
       <c r="G41" s="15">
-        <f>D41-$G$17</f>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B42" s="4">
         <v>10000</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="21">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="4"/>
+        <v>15350000</v>
+      </c>
+      <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="D42" s="6">
-        <f>$G$17+($G$16/(B42*$G$18))</f>
-        <v>15350000</v>
-      </c>
-      <c r="E42" s="4">
-        <f>B42*$G$18</f>
         <v>2</v>
       </c>
       <c r="F42" s="6">
-        <f>B42*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="G42" s="15">
-        <f>D42-$G$17</f>
+        <f t="shared" si="2"/>
         <v>600000</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B43" s="4">
         <v>15000</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="21">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="4"/>
+        <v>15150000</v>
+      </c>
+      <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D43" s="6">
-        <f>$G$17+($G$16/(B43*$G$18))</f>
-        <v>15150000</v>
-      </c>
-      <c r="E43" s="4">
-        <f>B43*$G$18</f>
         <v>3</v>
       </c>
       <c r="F43" s="6">
-        <f>B43*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>1125000</v>
       </c>
       <c r="G43" s="15">
-        <f>D43-$G$17</f>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B44" s="4">
         <v>20000</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="21">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="4"/>
+        <v>15050000</v>
+      </c>
+      <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D44" s="6">
-        <f>$G$17+($G$16/(B44*$G$18))</f>
-        <v>15050000</v>
-      </c>
-      <c r="E44" s="4">
-        <f>B44*$G$18</f>
         <v>4</v>
       </c>
       <c r="F44" s="6">
-        <f>B44*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
       <c r="G44" s="15">
-        <f>D44-$G$17</f>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B45" s="4">
         <v>25000</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="21">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="4"/>
+        <v>14990000</v>
+      </c>
+      <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D45" s="6">
-        <f>$G$17+($G$16/(B45*$G$18))</f>
-        <v>14990000</v>
-      </c>
-      <c r="E45" s="4">
-        <f>B45*$G$18</f>
         <v>5</v>
       </c>
       <c r="F45" s="6">
-        <f>B45*($G$21*(1-$G$15))</f>
+        <f t="shared" si="1"/>
         <v>1875000</v>
       </c>
       <c r="G45" s="15">
-        <f>D45-$G$17</f>
+        <f t="shared" si="2"/>
         <v>240000</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1594,13 +1592,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B25:H26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
@@ -1629,175 +1620,175 @@
   <dimension ref="B4:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3">
-        <v>14589176</v>
-      </c>
-      <c r="E4" s="29" t="s">
+        <v>14621097</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>14750000</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C6">
         <f>C5-C4</f>
-        <v>160824</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128903</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C8">
         <f>C6*2</f>
-        <v>321648</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>257806</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C9">
         <f>C8/60</f>
-        <v>5360.8</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4296.7666666666664</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C10">
         <f>C9/60</f>
-        <v>89.346666666666664</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>71.612777777777779</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C11">
         <f>C10/24</f>
-        <v>3.7227777777777775</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.983865740740741</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C12">
         <f>C11/7</f>
-        <v>0.53182539682539676</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.42626653439153445</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C13">
         <f>C12/4</f>
-        <v>0.13295634920634919</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.10656663359788361</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C14">
         <f>C13/12</f>
-        <v>1.1079695767195766E-2</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>8.8805527998236343E-3</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44376.403006481487</v>
+        <v>44375.707793402777</v>
       </c>
     </row>
   </sheetData>
@@ -1816,17 +1807,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1846,7 +1837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1866,7 +1857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1906,7 +1897,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1917,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C1ECB-E353-48FF-8F15-73CB6AABEEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B209268-5841-41B6-841E-347A31F27DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,12 +363,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,18 +391,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -771,7 +771,7 @@
   <dimension ref="B10:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -799,38 +799,38 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="25" t="str">
+      <c r="B11" s="30" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="20"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="20"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="20"/>
       <c r="J13" s="5"/>
     </row>
@@ -854,11 +854,11 @@
         <v>52</v>
       </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="29">
+      <c r="G15" s="33">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="29"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
@@ -872,10 +872,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="27">
+      <c r="G16" s="31">
         <v>1200000</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
@@ -889,10 +889,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="27">
+      <c r="G17" s="31">
         <v>14750000</v>
       </c>
-      <c r="H17" s="27"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
@@ -906,10 +906,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="30">
+      <c r="G18" s="34">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
@@ -923,11 +923,11 @@
         <v>14</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="28">
+      <c r="G19" s="32">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>375</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
@@ -942,11 +942,11 @@
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="32">
+      <c r="G20" s="27">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="32"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
@@ -961,10 +961,10 @@
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
       <c r="F21" s="26"/>
-      <c r="G21" s="27">
-        <v>150</v>
-      </c>
-      <c r="H21" s="27"/>
+      <c r="G21" s="31">
+        <v>300</v>
+      </c>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
@@ -978,11 +978,11 @@
         <v>17</v>
       </c>
       <c r="F22" s="26"/>
-      <c r="G22" s="33">
+      <c r="G22" s="28">
         <f>G21/G18</f>
-        <v>750000</v>
-      </c>
-      <c r="H22" s="33"/>
+        <v>1500000</v>
+      </c>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
@@ -994,8 +994,8 @@
       <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
@@ -1005,25 +1005,25 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" ref="F28:F45" si="1">B28*($G$21*(1-$G$15))</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" ref="G28:G45" si="2">D28-$G$17</f>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H28" s="4">
         <f>F28/$G$16</f>
-        <v>6.2500000000000001E-5</v>
+        <v>1.25E-4</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="2"/>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="H29" s="4">
         <f>F29/$G$16</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.45">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="1"/>
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="2"/>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
-        <v>1.8749999999999999E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.45">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F31" s="6">
         <f t="shared" si="1"/>
-        <v>37500</v>
+        <v>75000</v>
       </c>
       <c r="G31" s="15">
         <f t="shared" si="2"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" si="5"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="1"/>
-        <v>52500</v>
+        <v>105000</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="2"/>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" si="5"/>
-        <v>4.3749999999999997E-2</v>
+        <v>8.7499999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.45">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="F33" s="6">
         <f t="shared" si="1"/>
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="2"/>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" si="5"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.45">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
-        <v>112500</v>
+        <v>225000</v>
       </c>
       <c r="G34" s="15">
         <f t="shared" si="2"/>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" si="5"/>
-        <v>9.375E-2</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.45">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F35" s="6">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="G35" s="15">
         <f t="shared" si="2"/>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" si="5"/>
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.45">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F36" s="6">
         <f t="shared" si="1"/>
-        <v>187500</v>
+        <v>375000</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="2"/>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" si="5"/>
-        <v>0.15625</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.45">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="F37" s="6">
         <f t="shared" si="1"/>
-        <v>225000</v>
+        <v>450000</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="2"/>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" si="5"/>
-        <v>0.1875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.45">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F38" s="6">
         <f t="shared" si="1"/>
-        <v>262500</v>
+        <v>525000</v>
       </c>
       <c r="G38" s="15">
         <f t="shared" si="2"/>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" si="5"/>
-        <v>0.21875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.45">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F39" s="6">
         <f t="shared" si="1"/>
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="G39" s="15">
         <f t="shared" si="2"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.45">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F40" s="6">
         <f t="shared" si="1"/>
-        <v>337500</v>
+        <v>675000</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="2"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" si="5"/>
-        <v>0.28125</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.45">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F41" s="6">
         <f t="shared" si="1"/>
-        <v>375000</v>
+        <v>750000</v>
       </c>
       <c r="G41" s="15">
         <f t="shared" si="2"/>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" si="5"/>
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.45">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F42" s="6">
         <f t="shared" si="1"/>
-        <v>750000</v>
+        <v>1500000</v>
       </c>
       <c r="G42" s="15">
         <f t="shared" si="2"/>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" si="5"/>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.45">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="F43" s="6">
         <f t="shared" si="1"/>
-        <v>1125000</v>
+        <v>2250000</v>
       </c>
       <c r="G43" s="15">
         <f t="shared" si="2"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="5"/>
-        <v>0.9375</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.45">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F44" s="6">
         <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="G44" s="15">
         <f t="shared" si="2"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="5"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.45">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="F45" s="6">
         <f t="shared" si="1"/>
-        <v>1875000</v>
+        <v>3750000</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="2"/>
@@ -1568,17 +1568,11 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="5"/>
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B25:H26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1592,6 +1586,12 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44375.707793402777</v>
+        <v>44375.889331597216</v>
       </c>
     </row>
   </sheetData>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B209268-5841-41B6-841E-347A31F27DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B9238C-BC26-43C4-8C4B-84DA547AB88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>JENN</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>Estimated Total Earnings Per Wallet                                       (This number will vary with when wallets register and on what block)</t>
+  </si>
+  <si>
+    <t>Output Per Block</t>
+  </si>
+  <si>
+    <t>Output Per Second</t>
+  </si>
+  <si>
+    <t>Output Per Minute</t>
+  </si>
+  <si>
+    <t>Output Per Hour</t>
+  </si>
+  <si>
+    <t>Output Per Day</t>
+  </si>
+  <si>
+    <t>Output Per Week</t>
+  </si>
+  <si>
+    <t>Output Per Day Per Wallet Count</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -362,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -768,29 +792,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B10:J45"/>
+  <dimension ref="B10:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="45.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="20.1328125" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
-    <col min="9" max="9" width="20.73046875" customWidth="1"/>
-    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -798,43 +823,43 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="30" t="str">
+    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="20"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="20"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="20"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -842,7 +867,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -850,17 +875,17 @@
         <v>9</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="33">
+      <c r="F15" s="27"/>
+      <c r="G15" s="34">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -868,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="31">
+      <c r="F16" s="27"/>
+      <c r="G16" s="32">
         <v>1200000</v>
       </c>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -885,16 +910,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="31">
+      <c r="F17" s="27"/>
+      <c r="G17" s="32">
         <v>14750000</v>
       </c>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -902,16 +927,23 @@
         <v>8999999</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="34">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F18" s="27"/>
+      <c r="G18" s="35">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="J18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <f>G18</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -919,17 +951,24 @@
         <v>599999</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="32">
+      <c r="F19" s="27"/>
+      <c r="G19" s="33">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>375</v>
       </c>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H19" s="33"/>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <f>K18/2</f>
+        <v>1.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -937,18 +976,25 @@
         <v>50</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="26" t="str">
+      <c r="E20" s="27" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN/ONE LP)</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H20" s="28"/>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <f>K19*60</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -956,17 +1002,24 @@
         <v>51</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="26" t="str">
+      <c r="E21" s="27" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN/ONE LP)</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="31">
+      <c r="F21" s="27"/>
+      <c r="G21" s="32">
         <v>300</v>
       </c>
-      <c r="H21" s="31"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H21" s="32"/>
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21">
+        <f>K20*60</f>
+        <v>0.53999999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -974,17 +1027,24 @@
         <v>21</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28">
+      <c r="F22" s="27"/>
+      <c r="G22" s="29">
         <f>G21/G18</f>
-        <v>1500000</v>
-      </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+        <v>1000000.0000000001</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22">
+        <f>K21*24</f>
+        <v>12.959999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -994,39 +1054,46 @@
       <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23">
+        <f>K22*7</f>
+        <v>90.719999999999985</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1048,8 +1115,11 @@
       <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="K27" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -1059,11 +1129,11 @@
       </c>
       <c r="D28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
-        <v>6014750000</v>
+        <v>4014750000.0000005</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ref="E28:E45" si="0">B28*$G$18</f>
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" ref="F28:F45" si="1">B28*($G$21*(1-$G$15))</f>
@@ -1071,28 +1141,32 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" ref="G28:G45" si="2">D28-$G$17</f>
-        <v>6000000000</v>
+        <v>4000000000.0000005</v>
       </c>
       <c r="H28" s="4">
         <f>F28/$G$16</f>
         <v>1.25E-4</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="K28">
+        <f>$K$22*B28</f>
+        <v>12.959999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>100</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" ref="C29:C45" si="3">G29*$G$18</f>
-        <v>12000</v>
+        <f>G29*$G$18</f>
+        <v>11999.999999999998</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" ref="D29:D45" si="4">$G$17+($G$16/(B29*$G$18))</f>
-        <v>74750000</v>
+        <f t="shared" ref="D29:D45" si="3">$G$17+($G$16/(B29*$G$18))</f>
+        <v>54750000</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="1"/>
@@ -1100,28 +1174,32 @@
       </c>
       <c r="G29" s="15">
         <f t="shared" si="2"/>
-        <v>60000000</v>
+        <v>40000000</v>
       </c>
       <c r="H29" s="4">
         <f>F29/$G$16</f>
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="K29">
+        <f t="shared" ref="K29:K45" si="4">$K$22*B29</f>
+        <v>1295.9999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>300</v>
       </c>
       <c r="C30" s="21">
+        <f t="shared" ref="C30:C45" si="5">G30*$G$18</f>
+        <v>4000.0000000000005</v>
+      </c>
+      <c r="D30" s="6">
         <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="4"/>
-        <v>34750000</v>
+        <v>28083333.333333336</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>6.0000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="1"/>
@@ -1129,28 +1207,32 @@
       </c>
       <c r="G30" s="15">
         <f t="shared" si="2"/>
-        <v>20000000</v>
+        <v>13333333.333333336</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" ref="H30:H45" si="5">F30/$G$16</f>
+        <f t="shared" ref="H30:H45" si="6">F30/$G$16</f>
         <v>3.7499999999999999E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>3887.9999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>500</v>
       </c>
       <c r="C31" s="21">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="D31" s="6">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="D31" s="6">
-        <f t="shared" si="4"/>
-        <v>26750000</v>
+        <v>22750000</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="1"/>
@@ -1158,28 +1240,32 @@
       </c>
       <c r="G31" s="15">
         <f t="shared" si="2"/>
-        <v>12000000</v>
+        <v>8000000</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>6479.9999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>700</v>
       </c>
       <c r="C32" s="21">
+        <f t="shared" si="5"/>
+        <v>1714.2857142857147</v>
+      </c>
+      <c r="D32" s="6">
         <f t="shared" si="3"/>
-        <v>1714.2857142857142</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="4"/>
-        <v>23321428.571428571</v>
+        <v>20464285.714285716</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="1"/>
@@ -1187,28 +1273,32 @@
       </c>
       <c r="G32" s="15">
         <f t="shared" si="2"/>
-        <v>8571428.5714285709</v>
+        <v>5714285.7142857164</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>9071.9999999999982</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>1000</v>
       </c>
       <c r="C33" s="21">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="D33" s="6">
         <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="4"/>
-        <v>20750000</v>
+        <v>18750000</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="1"/>
@@ -1216,28 +1306,32 @@
       </c>
       <c r="G33" s="15">
         <f t="shared" si="2"/>
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>12959.999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>1500</v>
       </c>
       <c r="C34" s="21">
+        <f t="shared" si="5"/>
+        <v>800.00000000000034</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="D34" s="6">
-        <f t="shared" si="4"/>
-        <v>18750000</v>
+        <v>17416666.666666668</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="1"/>
@@ -1245,28 +1339,32 @@
       </c>
       <c r="G34" s="15">
         <f t="shared" si="2"/>
-        <v>4000000</v>
+        <v>2666666.6666666679</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>19439.999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>2000</v>
       </c>
       <c r="C35" s="21">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+      <c r="D35" s="6">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="4"/>
-        <v>17750000</v>
+        <v>16750000</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="1"/>
@@ -1274,28 +1372,32 @@
       </c>
       <c r="G35" s="15">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>25919.999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2500</v>
       </c>
       <c r="C36" s="21">
+        <f t="shared" si="5"/>
+        <v>479.99999999999994</v>
+      </c>
+      <c r="D36" s="6">
         <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="D36" s="6">
-        <f t="shared" si="4"/>
-        <v>17150000</v>
+        <v>16350000</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="1"/>
@@ -1303,28 +1405,32 @@
       </c>
       <c r="G36" s="15">
         <f t="shared" si="2"/>
-        <v>2400000</v>
+        <v>1600000</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>32399.999999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>3000</v>
       </c>
       <c r="C37" s="21">
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
+      </c>
+      <c r="D37" s="6">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="4"/>
-        <v>16750000</v>
+        <v>16083333.333333334</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="1"/>
@@ -1332,28 +1438,32 @@
       </c>
       <c r="G37" s="15">
         <f t="shared" si="2"/>
-        <v>2000000</v>
+        <v>1333333.333333334</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>38879.999999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>3500</v>
       </c>
       <c r="C38" s="21">
+        <f t="shared" si="5"/>
+        <v>342.85714285714306</v>
+      </c>
+      <c r="D38" s="6">
         <f t="shared" si="3"/>
-        <v>342.85714285714295</v>
-      </c>
-      <c r="D38" s="6">
-        <f t="shared" si="4"/>
-        <v>16464285.714285715</v>
+        <v>15892857.142857144</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="1"/>
@@ -1361,28 +1471,32 @@
       </c>
       <c r="G38" s="15">
         <f t="shared" si="2"/>
-        <v>1714285.7142857146</v>
+        <v>1142857.1428571437</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>45359.999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>4000</v>
       </c>
       <c r="C39" s="21">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="D39" s="6">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="4"/>
-        <v>16250000</v>
+        <v>15750000</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="1"/>
@@ -1390,28 +1504,32 @@
       </c>
       <c r="G39" s="15">
         <f t="shared" si="2"/>
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>51839.999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>4500</v>
       </c>
       <c r="C40" s="21">
+        <f t="shared" si="5"/>
+        <v>266.6666666666664</v>
+      </c>
+      <c r="D40" s="6">
         <f t="shared" si="3"/>
-        <v>266.6666666666668</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="4"/>
-        <v>16083333.333333334</v>
+        <v>15638888.888888888</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>1.3499999999999999</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="1"/>
@@ -1419,28 +1537,32 @@
       </c>
       <c r="G40" s="15">
         <f t="shared" si="2"/>
-        <v>1333333.333333334</v>
+        <v>888888.88888888806</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>58319.999999999985</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>5000</v>
       </c>
       <c r="C41" s="21">
+        <f t="shared" si="5"/>
+        <v>239.99999999999997</v>
+      </c>
+      <c r="D41" s="6">
         <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" si="4"/>
-        <v>15950000</v>
+        <v>15550000</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="1"/>
@@ -1448,28 +1570,32 @@
       </c>
       <c r="G41" s="15">
         <f t="shared" si="2"/>
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.625</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>64799.999999999985</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>10000</v>
       </c>
       <c r="C42" s="21">
+        <f t="shared" si="5"/>
+        <v>119.99999999999999</v>
+      </c>
+      <c r="D42" s="6">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="D42" s="6">
-        <f t="shared" si="4"/>
-        <v>15350000</v>
+        <v>15150000</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="1"/>
@@ -1477,28 +1603,32 @@
       </c>
       <c r="G42" s="15">
         <f t="shared" si="2"/>
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>129599.99999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>15000</v>
       </c>
       <c r="C43" s="21">
+        <f t="shared" si="5"/>
+        <v>79.999999999999801</v>
+      </c>
+      <c r="D43" s="6">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="D43" s="6">
-        <f t="shared" si="4"/>
-        <v>15150000</v>
+        <v>15016666.666666666</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="1"/>
@@ -1506,28 +1636,32 @@
       </c>
       <c r="G43" s="15">
         <f t="shared" si="2"/>
-        <v>400000</v>
+        <v>266666.66666666605</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>194399.99999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>20000</v>
       </c>
       <c r="C44" s="21">
+        <f t="shared" si="5"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="D44" s="6">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="D44" s="6">
-        <f t="shared" si="4"/>
-        <v>15050000</v>
+        <v>14950000</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="1"/>
@@ -1535,28 +1669,32 @@
       </c>
       <c r="G44" s="15">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>259199.99999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>25000</v>
       </c>
       <c r="C45" s="21">
+        <f t="shared" si="5"/>
+        <v>47.999999999999993</v>
+      </c>
+      <c r="D45" s="6">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="D45" s="6">
-        <f t="shared" si="4"/>
-        <v>14990000</v>
+        <v>14910000</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="1"/>
@@ -1564,11 +1702,15 @@
       </c>
       <c r="G45" s="15">
         <f t="shared" si="2"/>
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.125</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>323999.99999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1623,41 +1765,41 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>14621097</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>14750000</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>39</v>
       </c>
@@ -1665,26 +1807,26 @@
         <f>C5-C4</f>
         <v>128903</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
@@ -1692,13 +1834,13 @@
         <f>C6*2</f>
         <v>257806</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
@@ -1706,13 +1848,13 @@
         <f>C8/60</f>
         <v>4296.7666666666664</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1720,13 +1862,13 @@
         <f>C9/60</f>
         <v>71.612777777777779</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
@@ -1734,13 +1876,13 @@
         <f>C10/24</f>
         <v>2.983865740740741</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>45</v>
       </c>
@@ -1748,13 +1890,13 @@
         <f>C11/7</f>
         <v>0.42626653439153445</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
@@ -1762,13 +1904,13 @@
         <f>C12/4</f>
         <v>0.10656663359788361</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>47</v>
       </c>
@@ -1776,19 +1918,19 @@
         <f>C13/12</f>
         <v>8.8805527998236343E-3</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44375.889331597216</v>
+        <v>44377.514176851852</v>
       </c>
     </row>
   </sheetData>
@@ -1807,17 +1949,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1999,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1897,7 +2039,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1917,7 +2059,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B9238C-BC26-43C4-8C4B-84DA547AB88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C5553-557C-4803-86C6-B29DA2D886D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>JENN</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Miner Fee Token</t>
-  </si>
-  <si>
-    <t>JENN/ONE LP</t>
   </si>
   <si>
     <t>TJ Miner Fee Cut</t>
@@ -387,34 +384,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -794,28 +791,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B10:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="45.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="9" max="9" width="20.73046875" customWidth="1"/>
+    <col min="10" max="10" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -823,43 +820,43 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="str">
+    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="26" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>Gem Mine Planner for JENN status as Diamond</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="20"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="20"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="20"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -867,7 +864,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -876,16 +873,16 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="34">
+      <c r="G15" s="30">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -897,12 +894,12 @@
         <v>6</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="32">
+      <c r="G16" s="28">
         <v>1200000</v>
       </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -914,12 +911,12 @@
         <v>7</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="32">
-        <v>14750000</v>
-      </c>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="28">
+        <v>14750026</v>
+      </c>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -931,19 +928,19 @@
         <v>8</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="35">
+      <c r="G18" s="31">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="31"/>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <f>G18</f>
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -955,71 +952,71 @@
         <v>14</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="33">
+      <c r="G19" s="29">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
         <v>375</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="29"/>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
         <f>K18/2</f>
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="27" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
-        <v>Minimum Entry Free (JENN/ONE LP)</v>
+        <v>Minimum Entry Free (JENN)</v>
       </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="28">
+      <c r="G20" s="33">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>50</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="33"/>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
         <f>K19*60</f>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="27" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
-        <v>Set Mine Fee (JENN/ONE LP)</v>
+        <v>Set Mine Fee (JENN)</v>
       </c>
       <c r="F21" s="27"/>
-      <c r="G21" s="32">
+      <c r="G21" s="28">
         <v>300</v>
       </c>
-      <c r="H21" s="32"/>
+      <c r="H21" s="28"/>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <f>K20*60</f>
         <v>0.53999999999999992</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1031,74 +1028,74 @@
         <v>17</v>
       </c>
       <c r="F22" s="27"/>
-      <c r="G22" s="29">
+      <c r="G22" s="34">
         <f>G21/G18</f>
         <v>1000000.0000000001</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="34"/>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <f>K21*24</f>
         <v>12.959999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
         <f>K22*7</f>
         <v>90.719999999999985</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>11</v>
@@ -1116,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -1129,7 +1126,7 @@
       </c>
       <c r="D28" s="6">
         <f>IFERROR($G$17+($G$16/(B28*$G$18)), 0)</f>
-        <v>4014750000.0000005</v>
+        <v>4014750026.0000005</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ref="E28:E45" si="0">B28*$G$18</f>
@@ -1147,12 +1144,16 @@
         <f>F28/$G$16</f>
         <v>1.25E-4</v>
       </c>
+      <c r="J28">
+        <f>$G$21/K28</f>
+        <v>23.148148148148152</v>
+      </c>
       <c r="K28">
         <f>$K$22*B28</f>
         <v>12.959999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -1162,7 +1163,7 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" ref="D29:D45" si="3">$G$17+($G$16/(B29*$G$18))</f>
-        <v>54750000</v>
+        <v>54750026</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
@@ -1185,7 +1186,7 @@
         <v>1295.9999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="4">
         <v>300</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="D30" s="6">
         <f t="shared" si="3"/>
-        <v>28083333.333333336</v>
+        <v>28083359.333333336</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
@@ -1218,7 +1219,7 @@
         <v>3887.9999999999991</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="4">
         <v>500</v>
       </c>
@@ -1228,7 +1229,7 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" si="3"/>
-        <v>22750000</v>
+        <v>22750026</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
@@ -1251,7 +1252,7 @@
         <v>6479.9999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="4">
         <v>700</v>
       </c>
@@ -1261,7 +1262,7 @@
       </c>
       <c r="D32" s="6">
         <f t="shared" si="3"/>
-        <v>20464285.714285716</v>
+        <v>20464311.714285716</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="0"/>
@@ -1284,7 +1285,7 @@
         <v>9071.9999999999982</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="4">
         <v>1000</v>
       </c>
@@ -1294,7 +1295,7 @@
       </c>
       <c r="D33" s="6">
         <f t="shared" si="3"/>
-        <v>18750000</v>
+        <v>18750026</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="0"/>
@@ -1317,7 +1318,7 @@
         <v>12959.999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" s="4">
         <v>1500</v>
       </c>
@@ -1327,7 +1328,7 @@
       </c>
       <c r="D34" s="6">
         <f t="shared" si="3"/>
-        <v>17416666.666666668</v>
+        <v>17416692.666666668</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="0"/>
@@ -1350,7 +1351,7 @@
         <v>19439.999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B35" s="4">
         <v>2000</v>
       </c>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="D35" s="6">
         <f t="shared" si="3"/>
-        <v>16750000</v>
+        <v>16750026</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="0"/>
@@ -1383,7 +1384,7 @@
         <v>25919.999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B36" s="4">
         <v>2500</v>
       </c>
@@ -1393,7 +1394,7 @@
       </c>
       <c r="D36" s="6">
         <f t="shared" si="3"/>
-        <v>16350000</v>
+        <v>16350026</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="0"/>
@@ -1416,7 +1417,7 @@
         <v>32399.999999999993</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B37" s="4">
         <v>3000</v>
       </c>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="D37" s="6">
         <f t="shared" si="3"/>
-        <v>16083333.333333334</v>
+        <v>16083359.333333334</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="0"/>
@@ -1449,7 +1450,7 @@
         <v>38879.999999999993</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B38" s="4">
         <v>3500</v>
       </c>
@@ -1459,7 +1460,7 @@
       </c>
       <c r="D38" s="6">
         <f t="shared" si="3"/>
-        <v>15892857.142857144</v>
+        <v>15892883.142857144</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
@@ -1482,7 +1483,7 @@
         <v>45359.999999999993</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B39" s="4">
         <v>4000</v>
       </c>
@@ -1492,7 +1493,7 @@
       </c>
       <c r="D39" s="6">
         <f t="shared" si="3"/>
-        <v>15750000</v>
+        <v>15750026</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
@@ -1515,7 +1516,7 @@
         <v>51839.999999999993</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B40" s="4">
         <v>4500</v>
       </c>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="D40" s="6">
         <f t="shared" si="3"/>
-        <v>15638888.888888888</v>
+        <v>15638914.888888888</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
@@ -1548,7 +1549,7 @@
         <v>58319.999999999985</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B41" s="4">
         <v>5000</v>
       </c>
@@ -1558,7 +1559,7 @@
       </c>
       <c r="D41" s="6">
         <f t="shared" si="3"/>
-        <v>15550000</v>
+        <v>15550026</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
@@ -1581,7 +1582,7 @@
         <v>64799.999999999985</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B42" s="4">
         <v>10000</v>
       </c>
@@ -1591,7 +1592,7 @@
       </c>
       <c r="D42" s="6">
         <f t="shared" si="3"/>
-        <v>15150000</v>
+        <v>15150026</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="0"/>
@@ -1614,7 +1615,7 @@
         <v>129599.99999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B43" s="4">
         <v>15000</v>
       </c>
@@ -1624,7 +1625,7 @@
       </c>
       <c r="D43" s="6">
         <f t="shared" si="3"/>
-        <v>15016666.666666666</v>
+        <v>15016692.666666666</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="0"/>
@@ -1647,7 +1648,7 @@
         <v>194399.99999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B44" s="4">
         <v>20000</v>
       </c>
@@ -1657,7 +1658,7 @@
       </c>
       <c r="D44" s="6">
         <f t="shared" si="3"/>
-        <v>14950000</v>
+        <v>14950026</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="0"/>
@@ -1680,7 +1681,7 @@
         <v>259199.99999999994</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B45" s="4">
         <v>25000</v>
       </c>
@@ -1690,7 +1691,7 @@
       </c>
       <c r="D45" s="6">
         <f t="shared" si="3"/>
-        <v>14910000</v>
+        <v>14910026</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="0"/>
@@ -1715,6 +1716,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1728,12 +1735,6 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B25:H26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
@@ -1765,30 +1766,30 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>14621097</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>14750000</v>
@@ -1799,9 +1800,9 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <f>C5-C4</f>
@@ -1813,9 +1814,9 @@
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1826,9 +1827,9 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f>C6*2</f>
@@ -1840,9 +1841,9 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <f>C8/60</f>
@@ -1854,9 +1855,9 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <f>C9/60</f>
@@ -1868,9 +1869,9 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f>C10/24</f>
@@ -1882,9 +1883,9 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <f>C11/7</f>
@@ -1896,9 +1897,9 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <f>C12/4</f>
@@ -1910,9 +1911,9 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <f>C13/12</f>
@@ -1924,13 +1925,13 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44377.514176851852</v>
+        <v>44377.81468935185</v>
       </c>
     </row>
   </sheetData>
@@ -1946,25 +1947,25 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
@@ -1976,21 +1977,21 @@
         <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <v>50</v>
@@ -1999,12 +2000,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -2019,12 +2020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4">
         <v>10</v>
@@ -2039,12 +2040,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4">
         <v>50</v>
@@ -2059,12 +2060,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>

--- a/Workbooks/Gem Mine Strategy Template.xlsx
+++ b/Workbooks/Gem Mine Strategy Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wide_\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\GitHub\Token-Jenny-Public\Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C5553-557C-4803-86C6-B29DA2D886D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6155C922-DD36-41FC-A704-73F0D045D69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gem Mine Planner" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -384,12 +384,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -400,18 +415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -792,27 +795,27 @@
   <dimension ref="B10:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="45.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" customWidth="1"/>
-    <col min="6" max="6" width="20.1328125" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" customWidth="1"/>
-    <col min="9" max="9" width="20.73046875" customWidth="1"/>
-    <col min="10" max="10" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -820,43 +823,43 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="26" t="str">
+    <row r="11" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="str">
         <f>"Gem Mine Planner for "&amp;C16&amp;" status as "&amp;INDEX('Dropdown Data'!C3:C7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
-        <v>Gem Mine Planner for JENN status as Diamond</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+        <v>Gem Mine Planner for JENN status as Sapphire</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="20"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="20"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="20"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -864,7 +867,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>1</v>
       </c>
@@ -872,17 +875,17 @@
         <v>9</v>
       </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30">
+      <c r="F15" s="28"/>
+      <c r="G15" s="35">
         <f>INDEX('Dropdown Data'!G3:G7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="H15" s="35"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
@@ -890,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28">
+      <c r="F16" s="28"/>
+      <c r="G16" s="33">
         <v>1200000</v>
       </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>3</v>
       </c>
@@ -907,16 +910,16 @@
         <v>18</v>
       </c>
       <c r="D17" s="21"/>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28">
+      <c r="F17" s="28"/>
+      <c r="G17" s="33">
         <v>14750026</v>
       </c>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -924,14 +927,14 @@
         <v>8999999</v>
       </c>
       <c r="D18" s="17"/>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="31">
+      <c r="F18" s="28"/>
+      <c r="G18" s="36">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="36"/>
       <c r="J18" t="s">
         <v>57</v>
       </c>
@@ -940,7 +943,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -948,15 +951,15 @@
         <v>599999</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="29">
+      <c r="F19" s="28"/>
+      <c r="G19" s="34">
         <f>ROUNDUP((C18/G16)*INDEX('Dropdown Data'!F3:F7, MATCH(C22, 'Dropdown Data'!B3:B7, 0)), 0)</f>
-        <v>375</v>
-      </c>
-      <c r="H19" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="H19" s="34"/>
       <c r="J19" t="s">
         <v>58</v>
       </c>
@@ -965,7 +968,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>15</v>
       </c>
@@ -973,16 +976,16 @@
         <v>49</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="28" t="str">
         <f>"Minimum Entry Free ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Minimum Entry Free (JENN)</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="33">
+      <c r="F20" s="28"/>
+      <c r="G20" s="29">
         <f>INDEX('Dropdown Data'!D3:D7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))</f>
-        <v>50</v>
-      </c>
-      <c r="H20" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="H20" s="29"/>
       <c r="J20" t="s">
         <v>59</v>
       </c>
@@ -991,7 +994,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -999,15 +1002,15 @@
         <v>50</v>
       </c>
       <c r="D21" s="22"/>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="28" t="str">
         <f>"Set Mine Fee ("&amp;INDEX('Dropdown Data'!E3:E7, MATCH(C22, 'Dropdown Data'!B3:B7, 0))&amp;")"</f>
         <v>Set Mine Fee (JENN)</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28">
+      <c r="F21" s="28"/>
+      <c r="G21" s="33">
         <v>300</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="33"/>
       <c r="J21" t="s">
         <v>60</v>
       </c>
@@ -1016,23 +1019,23 @@
         <v>0.53999999999999992</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="34">
+      <c r="F22" s="28"/>
+      <c r="G22" s="30">
         <f>G21/G18</f>
         <v>1000000.0000000001</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="30"/>
       <c r="J22" t="s">
         <v>61</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>12.959999999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>53</v>
       </c>
@@ -1051,8 +1054,8 @@
       <c r="D23" s="21"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
       <c r="J23" t="s">
         <v>62</v>
       </c>
@@ -1061,36 +1064,36 @@
         <v>90.719999999999985</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="32" t="s">
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
@@ -1112,11 +1115,12 @@
       <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="J27" s="26"/>
       <c r="K27" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>1</v>
       </c>
@@ -1144,16 +1148,12 @@
         <f>F28/$G$16</f>
         <v>1.25E-4</v>
       </c>
-      <c r="J28">
-        <f>$G$21/K28</f>
-        <v>23.148148148148152</v>
-      </c>
       <c r="K28">
         <f>$K$22*B28</f>
         <v>12.959999999999997</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1295.9999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>300</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>3887.9999999999991</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>500</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>6479.9999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>700</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>9071.9999999999982</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>1000</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>12959.999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>1500</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>19439.999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>2000</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>25919.999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2500</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>32399.999999999993</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>3000</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>38879.999999999993</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>3500</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>45359.999999999993</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>4000</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>51839.999999999993</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>4500</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>58319.999999999985</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>5000</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>64799.999999999985</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>10000</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>129599.99999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>15000</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>194399.99999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>20000</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>259199.99999999994</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>25000</v>
       </c>
@@ -1716,12 +1716,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B25:H26"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="B11:H13"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E19:F19"/>
@@ -1735,6 +1729,12 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B25:H26"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" xr:uid="{B0BB3CFF-4EF8-4213-A811-9067C58A1058}"/>
@@ -1766,41 +1766,41 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3">
         <v>14621097</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>14750000</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>38</v>
       </c>
@@ -1808,26 +1808,26 @@
         <f>C5-C4</f>
         <v>128903</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
@@ -1835,13 +1835,13 @@
         <f>C6*2</f>
         <v>257806</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1849,13 +1849,13 @@
         <f>C8/60</f>
         <v>4296.7666666666664</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
@@ -1863,13 +1863,13 @@
         <f>C9/60</f>
         <v>71.612777777777779</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1877,13 +1877,13 @@
         <f>C10/24</f>
         <v>2.983865740740741</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
@@ -1891,13 +1891,13 @@
         <f>C11/7</f>
         <v>0.42626653439153445</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>45</v>
       </c>
@@ -1905,13 +1905,13 @@
         <f>C12/4</f>
         <v>0.10656663359788361</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>46</v>
       </c>
@@ -1919,19 +1919,19 @@
         <f>C13/12</f>
         <v>8.8805527998236343E-3</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="16">
         <f ca="1">NOW()+C11</f>
-        <v>44377.81468935185</v>
+        <v>44382.110246064811</v>
       </c>
     </row>
   </sheetData>
@@ -1950,17 +1950,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
